--- a/Prototype 3/SUS_Questionnaire_Template.xlsx
+++ b/Prototype 3/SUS_Questionnaire_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9789ad9ed520026/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\作业\S4\deco2300\WeiShao_DECO2300_2025\Prototype 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_D5CEDCC997D9AEEF8A45774E807741066D0A9DDD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E68AA21A-4322-4E76-9797-75718B3AEF83}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B18AE5-B7C7-403D-ABAF-0D437E722669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="11">
   <si>
     <t>1. I think that I would like to use this system frequently.</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>10. I needed to learn a lot of things before I could get going with this system.</t>
-  </si>
-  <si>
-    <t>SUS Total Score (0–100 scale):</t>
   </si>
   <si>
     <t>Y</t>
@@ -456,18 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="136.36328125" customWidth="1"/>
+    <col min="1" max="1" width="146.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3">
         <v>1</v>
@@ -485,88 +482,406 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
         <v>10</v>
       </c>
     </row>
